--- a/Generation/Bully.xlsx
+++ b/Generation/Bully.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Table 1</t>
   </si>
@@ -52,55 +52,193 @@
     <t>3 Planets - Map 1</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
     <t>3 Planets - Map 2</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>3 Planets - Map 3</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>4 Planets - Map 1</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
     <t>4 Planets - Map 2</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>4 Planets - Map 3</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>5 Planets - Map 1</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>5 Planets - Map 2</t>
   </si>
   <si>
     <t>5 Planets - Map 3</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>6 Planets - Map 1</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>6 Planets - Map 2</t>
   </si>
   <si>
     <t>6 Planets - Map 3</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>7 Planets - Map 1</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>7 Planets - Map 2</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>7 Planets - Map 3</t>
   </si>
   <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>8 Planets - Map 1</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>8 Planets - Map 2</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>8 Planets - Map 3</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
 </sst>
 </file>
@@ -110,7 +248,7 @@
   <numFmts count="1">
     <numFmt formatCode="General" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -137,6 +275,18 @@
       <i val="1"/>
       <color indexed="8"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="00FF0000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="0000FF00"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
@@ -321,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -371,6 +521,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1837,361 +2005,901 @@
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="n"/>
-      <c r="C4" s="12" t="n"/>
-      <c r="D4" s="12" t="n"/>
-      <c r="E4" s="12" t="n"/>
-      <c r="F4" s="12" t="n"/>
-      <c r="G4" s="12" t="n"/>
-      <c r="H4" s="12" t="n"/>
-      <c r="I4" s="12" t="n"/>
-      <c r="J4" s="12" t="n"/>
-      <c r="K4" s="12" t="n"/>
-      <c r="L4" s="12" t="n"/>
-      <c r="M4" s="12" t="n"/>
-      <c r="N4" s="12" t="n"/>
-      <c r="O4" s="12" t="n"/>
-      <c r="P4" s="12" t="n"/>
+      <c r="B4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="5" s="16" spans="1:256">
       <c r="A5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="14" t="n"/>
-      <c r="C5" s="15" t="n"/>
-      <c r="D5" s="15" t="n"/>
-      <c r="E5" s="15" t="n"/>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="15" t="n"/>
-      <c r="H5" s="15" t="n"/>
-      <c r="I5" s="15" t="n"/>
-      <c r="J5" s="15" t="n"/>
-      <c r="K5" s="15" t="n"/>
-      <c r="L5" s="15" t="n"/>
-      <c r="M5" s="15" t="n"/>
-      <c r="N5" s="15" t="n"/>
-      <c r="O5" s="15" t="n"/>
-      <c r="P5" s="15" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="6" s="16" spans="1:256">
       <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="14" t="n"/>
-      <c r="C6" s="15" t="n"/>
-      <c r="D6" s="15" t="n"/>
-      <c r="E6" s="15" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="15" t="n"/>
-      <c r="H6" s="15" t="n"/>
-      <c r="I6" s="15" t="n"/>
-      <c r="J6" s="15" t="n"/>
-      <c r="K6" s="15" t="n"/>
-      <c r="L6" s="15" t="n"/>
-      <c r="M6" s="15" t="n"/>
-      <c r="N6" s="15" t="n"/>
-      <c r="O6" s="15" t="n"/>
-      <c r="P6" s="15" t="n"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="7" s="16" spans="1:256">
       <c r="A7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="14" t="n"/>
-      <c r="C7" s="15" t="n"/>
-      <c r="D7" s="15" t="n"/>
-      <c r="E7" s="15" t="n"/>
-      <c r="F7" s="15" t="n"/>
-      <c r="G7" s="15" t="n"/>
-      <c r="H7" s="15" t="n"/>
-      <c r="I7" s="15" t="n"/>
-      <c r="J7" s="15" t="n"/>
-      <c r="K7" s="15" t="n"/>
-      <c r="L7" s="15" t="n"/>
-      <c r="M7" s="15" t="n"/>
-      <c r="N7" s="15" t="n"/>
-      <c r="O7" s="15" t="n"/>
-      <c r="P7" s="15" t="n"/>
+        <v>22</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="8" s="16" spans="1:256">
       <c r="A8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="14" t="n"/>
-      <c r="C8" s="15" t="n"/>
-      <c r="D8" s="15" t="n"/>
-      <c r="E8" s="15" t="n"/>
-      <c r="F8" s="15" t="n"/>
-      <c r="G8" s="15" t="n"/>
-      <c r="H8" s="15" t="n"/>
-      <c r="I8" s="15" t="n"/>
-      <c r="J8" s="15" t="n"/>
-      <c r="K8" s="15" t="n"/>
-      <c r="L8" s="15" t="n"/>
-      <c r="M8" s="15" t="n"/>
-      <c r="N8" s="15" t="n"/>
-      <c r="O8" s="15" t="n"/>
-      <c r="P8" s="15" t="n"/>
+        <v>27</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="9" s="16" spans="1:256">
       <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14" t="n"/>
-      <c r="C9" s="15" t="n"/>
-      <c r="D9" s="15" t="n"/>
-      <c r="E9" s="15" t="n"/>
-      <c r="F9" s="15" t="n"/>
-      <c r="G9" s="15" t="n"/>
-      <c r="H9" s="15" t="n"/>
-      <c r="I9" s="15" t="n"/>
-      <c r="J9" s="15" t="n"/>
-      <c r="K9" s="15" t="n"/>
-      <c r="L9" s="15" t="n"/>
-      <c r="M9" s="15" t="n"/>
-      <c r="N9" s="15" t="n"/>
-      <c r="O9" s="15" t="n"/>
-      <c r="P9" s="15" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="10" s="16" spans="1:256">
       <c r="A10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14" t="n"/>
-      <c r="C10" s="15" t="n"/>
-      <c r="D10" s="15" t="n"/>
-      <c r="E10" s="15" t="n"/>
-      <c r="F10" s="15" t="n"/>
-      <c r="G10" s="15" t="n"/>
-      <c r="H10" s="15" t="n"/>
-      <c r="I10" s="15" t="n"/>
-      <c r="J10" s="15" t="n"/>
-      <c r="K10" s="15" t="n"/>
-      <c r="L10" s="15" t="n"/>
-      <c r="M10" s="15" t="n"/>
-      <c r="N10" s="15" t="n"/>
-      <c r="O10" s="15" t="n"/>
-      <c r="P10" s="15" t="n"/>
+        <v>37</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="11" s="16" spans="1:256">
       <c r="A11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="14" t="n"/>
-      <c r="C11" s="15" t="n"/>
-      <c r="D11" s="15" t="n"/>
-      <c r="E11" s="15" t="n"/>
-      <c r="F11" s="15" t="n"/>
-      <c r="G11" s="15" t="n"/>
-      <c r="H11" s="15" t="n"/>
-      <c r="I11" s="15" t="n"/>
-      <c r="J11" s="15" t="n"/>
-      <c r="K11" s="15" t="n"/>
-      <c r="L11" s="15" t="n"/>
-      <c r="M11" s="15" t="n"/>
-      <c r="N11" s="15" t="n"/>
-      <c r="O11" s="15" t="n"/>
-      <c r="P11" s="15" t="n"/>
+        <v>43</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="12" s="16" spans="1:256">
       <c r="A12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="14" t="n"/>
-      <c r="C12" s="15" t="n"/>
-      <c r="D12" s="15" t="n"/>
-      <c r="E12" s="15" t="n"/>
-      <c r="F12" s="15" t="n"/>
-      <c r="G12" s="15" t="n"/>
-      <c r="H12" s="15" t="n"/>
-      <c r="I12" s="15" t="n"/>
-      <c r="J12" s="15" t="n"/>
-      <c r="K12" s="15" t="n"/>
-      <c r="L12" s="15" t="n"/>
-      <c r="M12" s="15" t="n"/>
-      <c r="N12" s="15" t="n"/>
-      <c r="O12" s="15" t="n"/>
-      <c r="P12" s="15" t="n"/>
+        <v>44</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="13" s="16" spans="1:256">
       <c r="A13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="14" t="n"/>
-      <c r="C13" s="15" t="n"/>
-      <c r="D13" s="15" t="n"/>
-      <c r="E13" s="15" t="n"/>
-      <c r="F13" s="15" t="n"/>
-      <c r="G13" s="15" t="n"/>
-      <c r="H13" s="15" t="n"/>
-      <c r="I13" s="15" t="n"/>
-      <c r="J13" s="15" t="n"/>
-      <c r="K13" s="15" t="n"/>
-      <c r="L13" s="15" t="n"/>
-      <c r="M13" s="15" t="n"/>
-      <c r="N13" s="15" t="n"/>
-      <c r="O13" s="15" t="n"/>
-      <c r="P13" s="15" t="n"/>
+        <v>47</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="14" s="16" spans="1:256">
       <c r="A14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="14" t="n"/>
-      <c r="C14" s="15" t="n"/>
-      <c r="D14" s="15" t="n"/>
-      <c r="E14" s="15" t="n"/>
-      <c r="F14" s="15" t="n"/>
-      <c r="G14" s="15" t="n"/>
-      <c r="H14" s="15" t="n"/>
-      <c r="I14" s="15" t="n"/>
-      <c r="J14" s="15" t="n"/>
-      <c r="K14" s="15" t="n"/>
-      <c r="L14" s="15" t="n"/>
-      <c r="M14" s="15" t="n"/>
-      <c r="N14" s="15" t="n"/>
-      <c r="O14" s="15" t="n"/>
-      <c r="P14" s="15" t="n"/>
+        <v>50</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="15" s="16" spans="1:256">
       <c r="A15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="14" t="n"/>
-      <c r="C15" s="15" t="n"/>
-      <c r="D15" s="15" t="n"/>
-      <c r="E15" s="15" t="n"/>
-      <c r="F15" s="15" t="n"/>
-      <c r="G15" s="15" t="n"/>
-      <c r="H15" s="15" t="n"/>
-      <c r="I15" s="15" t="n"/>
-      <c r="J15" s="15" t="n"/>
-      <c r="K15" s="15" t="n"/>
-      <c r="L15" s="15" t="n"/>
-      <c r="M15" s="15" t="n"/>
-      <c r="N15" s="15" t="n"/>
-      <c r="O15" s="15" t="n"/>
-      <c r="P15" s="15" t="n"/>
+        <v>51</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="16" s="16" spans="1:256">
       <c r="A16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="14" t="n"/>
-      <c r="C16" s="15" t="n"/>
-      <c r="D16" s="15" t="n"/>
-      <c r="E16" s="15" t="n"/>
-      <c r="F16" s="15" t="n"/>
-      <c r="G16" s="15" t="n"/>
-      <c r="H16" s="15" t="n"/>
-      <c r="I16" s="15" t="n"/>
-      <c r="J16" s="15" t="n"/>
-      <c r="K16" s="15" t="n"/>
-      <c r="L16" s="15" t="n"/>
-      <c r="M16" s="15" t="n"/>
-      <c r="N16" s="15" t="n"/>
-      <c r="O16" s="15" t="n"/>
-      <c r="P16" s="15" t="n"/>
+        <v>54</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="17" s="16" spans="1:256">
       <c r="A17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="14" t="n"/>
-      <c r="C17" s="15" t="n"/>
-      <c r="D17" s="15" t="n"/>
-      <c r="E17" s="15" t="n"/>
-      <c r="F17" s="15" t="n"/>
-      <c r="G17" s="15" t="n"/>
-      <c r="H17" s="15" t="n"/>
-      <c r="I17" s="15" t="n"/>
-      <c r="J17" s="15" t="n"/>
-      <c r="K17" s="15" t="n"/>
-      <c r="L17" s="15" t="n"/>
-      <c r="M17" s="15" t="n"/>
-      <c r="N17" s="15" t="n"/>
-      <c r="O17" s="15" t="n"/>
-      <c r="P17" s="15" t="n"/>
+        <v>57</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="18" s="16" spans="1:256">
       <c r="A18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="14" t="n"/>
-      <c r="C18" s="15" t="n"/>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="15" t="n"/>
-      <c r="F18" s="15" t="n"/>
-      <c r="G18" s="15" t="n"/>
-      <c r="H18" s="15" t="n"/>
-      <c r="I18" s="15" t="n"/>
-      <c r="J18" s="15" t="n"/>
-      <c r="K18" s="15" t="n"/>
-      <c r="L18" s="15" t="n"/>
-      <c r="M18" s="15" t="n"/>
-      <c r="N18" s="15" t="n"/>
-      <c r="O18" s="15" t="n"/>
-      <c r="P18" s="15" t="n"/>
+        <v>60</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="19" s="16" spans="1:256">
       <c r="A19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="14" t="n"/>
-      <c r="C19" s="15" t="n"/>
-      <c r="D19" s="15" t="n"/>
-      <c r="E19" s="15" t="n"/>
-      <c r="F19" s="15" t="n"/>
-      <c r="G19" s="15" t="n"/>
-      <c r="H19" s="15" t="n"/>
-      <c r="I19" s="15" t="n"/>
-      <c r="J19" s="15" t="n"/>
-      <c r="K19" s="15" t="n"/>
-      <c r="L19" s="15" t="n"/>
-      <c r="M19" s="15" t="n"/>
-      <c r="N19" s="15" t="n"/>
-      <c r="O19" s="15" t="n"/>
-      <c r="P19" s="15" t="n"/>
+        <v>66</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="20" s="16" spans="1:256">
       <c r="A20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="14" t="n"/>
-      <c r="C20" s="15" t="n"/>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="n"/>
-      <c r="G20" s="15" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
-      <c r="J20" s="15" t="n"/>
-      <c r="K20" s="15" t="n"/>
-      <c r="L20" s="15" t="n"/>
-      <c r="M20" s="15" t="n"/>
-      <c r="N20" s="15" t="n"/>
-      <c r="O20" s="15" t="n"/>
-      <c r="P20" s="15" t="n"/>
+        <v>70</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row customHeight="1" ht="20.35" r="21" s="16" spans="1:256">
       <c r="A21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="14" t="n"/>
-      <c r="C21" s="15" t="n"/>
-      <c r="D21" s="15" t="n"/>
-      <c r="E21" s="15" t="n"/>
-      <c r="F21" s="15" t="n"/>
-      <c r="G21" s="15" t="n"/>
-      <c r="H21" s="15" t="n"/>
-      <c r="I21" s="15" t="n"/>
-      <c r="J21" s="15" t="n"/>
-      <c r="K21" s="15" t="n"/>
-      <c r="L21" s="15" t="n"/>
-      <c r="M21" s="15" t="n"/>
-      <c r="N21" s="15" t="n"/>
-      <c r="O21" s="15" t="n"/>
-      <c r="P21" s="15" t="n"/>
+        <v>72</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
